--- a/Administration/Gantt Chart.xlsx
+++ b/Administration/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83c6986f351680b/Documents/Year 3/CSC-30014/Administration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Documents\Year 3\CSC-30014\dissertation-project\Administration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{0AC0912F-BEB8-4128-9F6E-1D9831B5A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2188D6C7-ED29-4F2E-BC50-6E2C3698D49E}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{0AC0912F-BEB8-4128-9F6E-1D9831B5A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5CF1C57-8B2F-4F92-AC6E-70F1C8991742}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3692FD6C-9EED-4B12-911E-D6BEB0221F63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3692FD6C-9EED-4B12-911E-D6BEB0221F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="3" r:id="rId1"/>
@@ -326,6 +326,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,9 +359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,88 +676,88 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="27" width="5.3671875" customWidth="1"/>
-    <col min="28" max="28" width="3.89453125" customWidth="1"/>
-    <col min="29" max="29" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.9453125" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="5.42578125" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25"/>
-      <c r="B2" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="37"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -963,9 +963,9 @@
       <c r="AC7" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" s="35"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD7" s="25"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -998,9 +998,9 @@
       <c r="AC8" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="36"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD8" s="26"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1033,9 +1033,9 @@
       <c r="AC9" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="37"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD9" s="27"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="24"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
